--- a/Saved_file/EM001/2026_10/sap_data.xlsx
+++ b/Saved_file/EM001/2026_10/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST5380</t>
+          <t>CUST1005</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32212697</v>
+        <v>54987254</v>
       </c>
       <c r="E2" t="n">
-        <v>9469606</v>
+        <v>19232739</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST9754</t>
+          <t>CUST7959</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55616613</v>
+        <v>46854519</v>
       </c>
       <c r="E3" t="n">
-        <v>18829936</v>
+        <v>12014592</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,12 +578,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST4796</t>
+          <t>CUST1415</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45237258</v>
+        <v>46576556</v>
       </c>
       <c r="E4" t="n">
-        <v>14987480</v>
+        <v>12195441</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST3618</t>
+          <t>CUST7213</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43493844</v>
+        <v>53276858</v>
       </c>
       <c r="E5" t="n">
-        <v>11859463</v>
+        <v>16269171</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,25 +708,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST7095</t>
+          <t>CUST9597</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47950301</v>
+        <v>53439796</v>
       </c>
       <c r="E6" t="n">
-        <v>15475437</v>
+        <v>15756384</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST8598</t>
+          <t>CUST7162</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>38918473</v>
+        <v>43418965</v>
       </c>
       <c r="E7" t="n">
-        <v>10823430</v>
+        <v>13968173</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST4796</t>
+          <t>CUST4907</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59057450</v>
+        <v>49532220</v>
       </c>
       <c r="E8" t="n">
-        <v>16282576</v>
+        <v>12956803</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST7544</t>
+          <t>CUST2706</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45948327</v>
+        <v>56901531</v>
       </c>
       <c r="E9" t="n">
-        <v>15814568</v>
+        <v>17448903</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST5759</t>
+          <t>CUST9360</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>56175355</v>
+        <v>52849331</v>
       </c>
       <c r="E10" t="n">
-        <v>14066435</v>
+        <v>17030811</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-10-03</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST3989</t>
+          <t>CUST1415</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39210735</v>
+        <v>50717636</v>
       </c>
       <c r="E11" t="n">
-        <v>11537300</v>
+        <v>17344553</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-10-17</t>
+          <t>2026-10-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST3618</t>
+          <t>CUST1038</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57891861</v>
+        <v>48170052</v>
       </c>
       <c r="E12" t="n">
-        <v>18061675</v>
+        <v>15865142</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST1631</t>
+          <t>CUST9957</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35515685</v>
+        <v>44328110</v>
       </c>
       <c r="E13" t="n">
-        <v>9731239</v>
+        <v>14453898</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST7106</t>
+          <t>CUST4499</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40630666</v>
+        <v>55544884</v>
       </c>
       <c r="E14" t="n">
-        <v>12381737</v>
+        <v>18059096</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST5531</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52282782</v>
+        <v>55805715</v>
       </c>
       <c r="E15" t="n">
-        <v>14594753</v>
+        <v>17825444</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST8598</t>
+          <t>CUST9597</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>52320363</v>
+        <v>52919528</v>
       </c>
       <c r="E16" t="n">
-        <v>17347290</v>
+        <v>16768400</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST8598</t>
+          <t>CUST9553</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53556539</v>
+        <v>57001421</v>
       </c>
       <c r="E17" t="n">
-        <v>14313663</v>
+        <v>15035626</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST9754</t>
+          <t>CUST2706</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45942366</v>
+        <v>35359140</v>
       </c>
       <c r="E18" t="n">
-        <v>12862239</v>
+        <v>11173758</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-10-30</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST5071</t>
+          <t>CUST8529</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59038952</v>
+        <v>44486830</v>
       </c>
       <c r="E19" t="n">
-        <v>20348062</v>
+        <v>15327382</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1447,12 +1447,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST8688</t>
+          <t>CUST9360</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>42728885</v>
+        <v>36356536</v>
       </c>
       <c r="E20" t="n">
-        <v>14581736</v>
+        <v>12568813</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-10-14</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST5359</t>
+          <t>CUST1838</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40636223</v>
+        <v>44353711</v>
       </c>
       <c r="E21" t="n">
-        <v>10612052</v>
+        <v>15096853</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST2653</t>
+          <t>CUST9234</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55590248</v>
+        <v>59068603</v>
       </c>
       <c r="E22" t="n">
-        <v>14442390</v>
+        <v>17472323</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,25 +1626,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST7342</t>
+          <t>CUST3564</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49470595</v>
+        <v>46329011</v>
       </c>
       <c r="E23" t="n">
-        <v>16250349</v>
+        <v>12466159</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST5759</t>
+          <t>CUST8165</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41972432</v>
+        <v>44952629</v>
       </c>
       <c r="E24" t="n">
-        <v>11686919</v>
+        <v>14961028</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST5645</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48459925</v>
+        <v>36616793</v>
       </c>
       <c r="E25" t="n">
-        <v>14903838</v>
+        <v>12205310</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1788,25 +1788,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST8155</t>
+          <t>CUST2668</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>54890644</v>
+        <v>37561980</v>
       </c>
       <c r="E26" t="n">
-        <v>14930093</v>
+        <v>11415201</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1842,25 +1842,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST5380</t>
+          <t>CUST2668</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>51118707</v>
+        <v>32694288</v>
       </c>
       <c r="E27" t="n">
-        <v>17368913</v>
+        <v>11278713</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST4813</t>
+          <t>CUST4907</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34966244</v>
+        <v>40506805</v>
       </c>
       <c r="E28" t="n">
-        <v>10144742</v>
+        <v>13288802</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-10-06</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST7303</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>48536707</v>
+        <v>42531466</v>
       </c>
       <c r="E29" t="n">
-        <v>16026691</v>
+        <v>11371247</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST8688</t>
+          <t>CUST3564</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47489138</v>
+        <v>56546158</v>
       </c>
       <c r="E30" t="n">
-        <v>16546334</v>
+        <v>16150134</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,19 +2058,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST5645</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30538335</v>
+        <v>34811374</v>
       </c>
       <c r="E31" t="n">
-        <v>8177546</v>
+        <v>11329218</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2117,20 +2117,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST8598</t>
+          <t>CUST4199</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>33901368</v>
+        <v>41802057</v>
       </c>
       <c r="E32" t="n">
-        <v>11273870</v>
+        <v>11765688</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST4638</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>54559280</v>
+        <v>36655542</v>
       </c>
       <c r="E33" t="n">
-        <v>14580638</v>
+        <v>12521914</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-08</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST7106</t>
+          <t>CUST5064</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>55320816</v>
+        <v>38973184</v>
       </c>
       <c r="E34" t="n">
-        <v>18031080</v>
+        <v>10256376</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST7365</t>
+          <t>CUST6774</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>57498263</v>
+        <v>53779727</v>
       </c>
       <c r="E35" t="n">
-        <v>14788742</v>
+        <v>16451089</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST7215</t>
+          <t>CUST2366</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>39135687</v>
+        <v>58933315</v>
       </c>
       <c r="E36" t="n">
-        <v>11740423</v>
+        <v>18294711</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST3989</t>
+          <t>CUST1415</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>54524555</v>
+        <v>59057344</v>
       </c>
       <c r="E37" t="n">
-        <v>16539141</v>
+        <v>17673624</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST6475</t>
+          <t>CUST3425</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>52127785</v>
+        <v>33201577</v>
       </c>
       <c r="E38" t="n">
-        <v>15929469</v>
+        <v>11579142</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST4441</t>
+          <t>CUST4746</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>48603175</v>
+        <v>41785734</v>
       </c>
       <c r="E39" t="n">
-        <v>13882310</v>
+        <v>11864265</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST4796</t>
+          <t>CUST3205</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>58876643</v>
+        <v>57503333</v>
       </c>
       <c r="E40" t="n">
-        <v>16860916</v>
+        <v>19545521</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST2653</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>52238032</v>
+        <v>33354051</v>
       </c>
       <c r="E41" t="n">
-        <v>13076738</v>
+        <v>11032871</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2635,12 +2635,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2652,25 +2652,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST6475</t>
+          <t>CUST6178</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>35110023</v>
+        <v>42355511</v>
       </c>
       <c r="E42" t="n">
-        <v>11519706</v>
+        <v>12891244</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST4985</t>
+          <t>CUST7162</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40792160</v>
+        <v>47444840</v>
       </c>
       <c r="E43" t="n">
-        <v>14119600</v>
+        <v>16423133</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2743,12 +2743,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST9245</t>
+          <t>CUST3564</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>31358056</v>
+        <v>32252817</v>
       </c>
       <c r="E44" t="n">
-        <v>9606917</v>
+        <v>8605751</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-10-30</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST7365</t>
+          <t>CUST1279</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>59946505</v>
+        <v>38782409</v>
       </c>
       <c r="E45" t="n">
-        <v>16581623</v>
+        <v>9967618</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST5645</t>
+          <t>CUST1415</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>37677205</v>
+        <v>33414252</v>
       </c>
       <c r="E46" t="n">
-        <v>11247646</v>
+        <v>10024662</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST7479</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>33202520</v>
+        <v>44929834</v>
       </c>
       <c r="E47" t="n">
-        <v>11337179</v>
+        <v>12771691</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2959,12 +2959,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6325</t>
+          <t>CUST3835</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32591748</v>
+        <v>39801237</v>
       </c>
       <c r="E48" t="n">
-        <v>11092291</v>
+        <v>10959806</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST3742</t>
+          <t>CUST4301</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>51504077</v>
+        <v>51293326</v>
       </c>
       <c r="E49" t="n">
-        <v>13593590</v>
+        <v>13556132</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST1757</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>55568548</v>
+        <v>33155729</v>
       </c>
       <c r="E50" t="n">
-        <v>18533544</v>
+        <v>9462109</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-10-01</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST6715</t>
+          <t>CUST8554</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>38662391</v>
+        <v>37602892</v>
       </c>
       <c r="E51" t="n">
-        <v>10482697</v>
+        <v>12683792</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-10-26</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST3760</t>
+          <t>CUST7213</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>52839178</v>
+        <v>55741045</v>
       </c>
       <c r="E52" t="n">
-        <v>17925134</v>
+        <v>15946761</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST3474</t>
+          <t>CUST4499</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>55547882</v>
+        <v>42301493</v>
       </c>
       <c r="E53" t="n">
-        <v>17272494</v>
+        <v>12224495</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST5531</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>59975913</v>
+        <v>30587860</v>
       </c>
       <c r="E54" t="n">
-        <v>15384734</v>
+        <v>9354462</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST9090</t>
+          <t>CUST8597</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>58910251</v>
+        <v>45211356</v>
       </c>
       <c r="E55" t="n">
-        <v>20194501</v>
+        <v>13322128</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST9737</t>
+          <t>CUST8165</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>55725980</v>
+        <v>44906769</v>
       </c>
       <c r="E56" t="n">
-        <v>17343779</v>
+        <v>13295439</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-10-31</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST7095</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>58657221</v>
+        <v>55399325</v>
       </c>
       <c r="E57" t="n">
-        <v>16574083</v>
+        <v>17276922</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,12 +3494,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-10-26</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST7106</t>
+          <t>CUST2091</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>35119300</v>
+        <v>53455110</v>
       </c>
       <c r="E58" t="n">
-        <v>11999422</v>
+        <v>15454164</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3570,25 +3570,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-10-10</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST9120</t>
+          <t>CUST9957</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>32034794</v>
+        <v>51192050</v>
       </c>
       <c r="E59" t="n">
-        <v>9975555</v>
+        <v>16175021</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3607,12 +3607,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3629,24 +3629,24 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST7106</t>
+          <t>CUST4301</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>33808233</v>
+        <v>46345445</v>
       </c>
       <c r="E60" t="n">
-        <v>9586396</v>
+        <v>14817024</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST4441</t>
+          <t>CUST2668</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>33677959</v>
+        <v>34418003</v>
       </c>
       <c r="E61" t="n">
-        <v>11743903</v>
+        <v>9242142</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST8155</t>
+          <t>CUST2035</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>36784669</v>
+        <v>41300532</v>
       </c>
       <c r="E62" t="n">
-        <v>9805611</v>
+        <v>10739049</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3764,17 +3764,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST4638</t>
+          <t>CUST6774</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>48781226</v>
+        <v>38849336</v>
       </c>
       <c r="E63" t="n">
-        <v>15023573</v>
+        <v>11375748</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-10-17</t>
+          <t>2026-10-30</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>42589862</v>
+        <v>55337977</v>
       </c>
       <c r="E64" t="n">
-        <v>13201877</v>
+        <v>16087964</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST7106</t>
+          <t>CUST2366</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>53977611</v>
+        <v>56195189</v>
       </c>
       <c r="E65" t="n">
-        <v>17104192</v>
+        <v>15384646</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,17 +3926,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST6715</t>
+          <t>CUST5531</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>40322397</v>
+        <v>46093972</v>
       </c>
       <c r="E66" t="n">
-        <v>12177111</v>
+        <v>12996630</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4002,29 +4002,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-10-29</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST5380</t>
+          <t>CUST9360</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>39348890</v>
+        <v>56663363</v>
       </c>
       <c r="E67" t="n">
-        <v>10319377</v>
+        <v>17980092</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-01</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST9245</t>
+          <t>CUST8597</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>48150639</v>
+        <v>51359462</v>
       </c>
       <c r="E68" t="n">
-        <v>13661937</v>
+        <v>14866334</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST6325</t>
+          <t>CUST2018</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>33878211</v>
+        <v>49081067</v>
       </c>
       <c r="E69" t="n">
-        <v>11085607</v>
+        <v>16894826</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,17 +4142,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST3711</t>
+          <t>CUST5531</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>45136553</v>
+        <v>54653728</v>
       </c>
       <c r="E70" t="n">
-        <v>15422380</v>
+        <v>18812304</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST6325</t>
+          <t>CUST3683</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>45394647</v>
+        <v>51325439</v>
       </c>
       <c r="E71" t="n">
-        <v>14992770</v>
+        <v>16905169</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4255,12 +4255,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4272,25 +4272,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-10-05</t>
+          <t>2026-10-24</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST5359</t>
+          <t>CUST4301</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>31973635</v>
+        <v>46121988</v>
       </c>
       <c r="E72" t="n">
-        <v>10893568</v>
+        <v>13746791</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4326,25 +4326,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-10-12</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST5645</t>
+          <t>CUST5297</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>31158886</v>
+        <v>54398598</v>
       </c>
       <c r="E73" t="n">
-        <v>8554519</v>
+        <v>15995873</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-10-03</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST3711</t>
+          <t>CUST6433</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>34973350</v>
+        <v>46878624</v>
       </c>
       <c r="E74" t="n">
-        <v>10971052</v>
+        <v>16167671</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST8869</t>
+          <t>CUST1279</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>35988078</v>
+        <v>38034647</v>
       </c>
       <c r="E75" t="n">
-        <v>10216919</v>
+        <v>11013000</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-10-29</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST9090</t>
+          <t>CUST3683</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>46312205</v>
+        <v>56853939</v>
       </c>
       <c r="E76" t="n">
-        <v>13837510</v>
+        <v>14742528</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST9629</t>
+          <t>CUST8529</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>51115642</v>
+        <v>44453292</v>
       </c>
       <c r="E77" t="n">
-        <v>16321216</v>
+        <v>12177412</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4574,17 +4574,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-10-21</t>
+          <t>2026-10-11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST4441</t>
+          <t>CUST3683</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>31423289</v>
+        <v>40066787</v>
       </c>
       <c r="E78" t="n">
-        <v>8290259</v>
+        <v>11096930</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4633,12 +4633,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST8598</t>
+          <t>CUST4204</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>44025086</v>
+        <v>40491406</v>
       </c>
       <c r="E79" t="n">
-        <v>13031631</v>
+        <v>12217032</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4687,12 +4687,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-10</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST4985</t>
+          <t>CUST1005</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>59236029</v>
+        <v>43464767</v>
       </c>
       <c r="E80" t="n">
-        <v>19039043</v>
+        <v>12598521</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4763,20 +4763,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST8598</t>
+          <t>CUST1415</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>51348211</v>
+        <v>49585829</v>
       </c>
       <c r="E81" t="n">
-        <v>15379586</v>
+        <v>15839165</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4795,12 +4795,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4812,19 +4812,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-26</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST3474</t>
+          <t>CUST4301</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>43763038</v>
+        <v>32263880</v>
       </c>
       <c r="E82" t="n">
-        <v>13876715</v>
+        <v>10716104</v>
       </c>
       <c r="F82" t="n">
         <v>2</v>
@@ -4844,17 +4844,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST5380</t>
+          <t>CUST6774</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>53615260</v>
+        <v>35379461</v>
       </c>
       <c r="E83" t="n">
-        <v>18012576</v>
+        <v>12123008</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-28</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST3749</t>
+          <t>CUST5531</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>57606450</v>
+        <v>47915160</v>
       </c>
       <c r="E84" t="n">
-        <v>19884492</v>
+        <v>15264759</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-29</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST7095</t>
+          <t>CUST9112</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>43166854</v>
+        <v>37852762</v>
       </c>
       <c r="E85" t="n">
-        <v>12436547</v>
+        <v>12279399</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5028,25 +5028,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-26</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST8869</t>
+          <t>CUST7134</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>56678879</v>
+        <v>42725431</v>
       </c>
       <c r="E86" t="n">
-        <v>15989773</v>
+        <v>11194341</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-10-17</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST1325</t>
+          <t>CUST5297</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>56359870</v>
+        <v>45373415</v>
       </c>
       <c r="E87" t="n">
-        <v>19277306</v>
+        <v>15761226</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-01</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST3989</t>
+          <t>CUST4204</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>46271038</v>
+        <v>37779320</v>
       </c>
       <c r="E88" t="n">
-        <v>13823160</v>
+        <v>9814045</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST3989</t>
+          <t>CUST4204</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>45805838</v>
+        <v>53844616</v>
       </c>
       <c r="E89" t="n">
-        <v>12103602</v>
+        <v>17224740</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-10-08</t>
+          <t>2026-10-17</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST9754</t>
+          <t>CUST2706</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>35211807</v>
+        <v>44763452</v>
       </c>
       <c r="E90" t="n">
-        <v>10277603</v>
+        <v>13617661</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST3474</t>
+          <t>CUST1279</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>48171732</v>
+        <v>32816544</v>
       </c>
       <c r="E91" t="n">
-        <v>12080063</v>
+        <v>10656265</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5352,29 +5352,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-02</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST8529</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>51066703</v>
+        <v>57853937</v>
       </c>
       <c r="E92" t="n">
-        <v>16880132</v>
+        <v>17320999</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5384,17 +5384,17 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5406,25 +5406,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-10-01</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST4441</t>
+          <t>CUST2706</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>42208560</v>
+        <v>38355634</v>
       </c>
       <c r="E93" t="n">
-        <v>10905462</v>
+        <v>10676883</v>
       </c>
       <c r="F93" t="n">
         <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5460,29 +5460,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-10-24</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST8869</t>
+          <t>CUST1038</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>54564360</v>
+        <v>39447673</v>
       </c>
       <c r="E94" t="n">
-        <v>16964694</v>
+        <v>11741624</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5497,12 +5497,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5514,25 +5514,25 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-10-23</t>
+          <t>2026-10-02</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST5645</t>
+          <t>CUST8165</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>35658658</v>
+        <v>47802738</v>
       </c>
       <c r="E95" t="n">
-        <v>9971976</v>
+        <v>11965990</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5546,17 +5546,17 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5568,25 +5568,25 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST1631</t>
+          <t>CUST2091</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>41708822</v>
+        <v>39542303</v>
       </c>
       <c r="E96" t="n">
-        <v>11075337</v>
+        <v>11907101</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -5600,12 +5600,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5622,29 +5622,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-10-22</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST8155</t>
+          <t>CUST8165</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>38596980</v>
+        <v>39293966</v>
       </c>
       <c r="E97" t="n">
-        <v>10982284</v>
+        <v>13406030</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5654,17 +5654,17 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST3474</t>
+          <t>CUST2322</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>36281513</v>
+        <v>32590475</v>
       </c>
       <c r="E98" t="n">
-        <v>11628574</v>
+        <v>10888257</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5730,29 +5730,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-27</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST9090</t>
+          <t>CUST3835</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>41835858</v>
+        <v>55846761</v>
       </c>
       <c r="E99" t="n">
-        <v>11256246</v>
+        <v>19511988</v>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5762,17 +5762,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5784,29 +5784,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-10-13</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST1631</t>
+          <t>CUST5531</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>42446419</v>
+        <v>48016706</v>
       </c>
       <c r="E100" t="n">
-        <v>12526321</v>
+        <v>12581968</v>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5838,25 +5838,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-23</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST3760</t>
+          <t>CUST4499</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>36765854</v>
+        <v>59854756</v>
       </c>
       <c r="E101" t="n">
-        <v>9191578</v>
+        <v>18507088</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5870,12 +5870,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -5892,25 +5892,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-09</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CUST3742</t>
+          <t>CUST4746</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>53067424</v>
+        <v>32118253</v>
       </c>
       <c r="E102" t="n">
-        <v>13292042</v>
+        <v>8726228</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -5924,17 +5924,17 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5946,25 +5946,25 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-10-11</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CUST3749</t>
+          <t>CUST1838</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>50569559</v>
+        <v>54136527</v>
       </c>
       <c r="E103" t="n">
-        <v>13607479</v>
+        <v>15991302</v>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6000,25 +6000,25 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-10-28</t>
+          <t>2026-10-22</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CUST6325</t>
+          <t>CUST1415</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>50141372</v>
+        <v>55141092</v>
       </c>
       <c r="E104" t="n">
-        <v>14710773</v>
+        <v>18571787</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -6032,17 +6032,17 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6054,25 +6054,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-10-30</t>
+          <t>2026-10-01</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CUST3749</t>
+          <t>CUST2668</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>40970567</v>
+        <v>38493292</v>
       </c>
       <c r="E105" t="n">
-        <v>14041903</v>
+        <v>10176091</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6086,12 +6086,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -6108,29 +6108,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-10-31</t>
+          <t>2026-10-26</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CUST7303</t>
+          <t>CUST7162</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>42671556</v>
+        <v>47915552</v>
       </c>
       <c r="E106" t="n">
-        <v>13443482</v>
+        <v>15006492</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -6162,29 +6162,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CUST4796</t>
+          <t>CUST4204</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>38614489</v>
+        <v>38063203</v>
       </c>
       <c r="E107" t="n">
-        <v>11359663</v>
+        <v>12410871</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6216,25 +6216,25 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-14</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CUST9245</t>
+          <t>CUST4499</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>35622859</v>
+        <v>41636254</v>
       </c>
       <c r="E108" t="n">
-        <v>11953068</v>
+        <v>11477868</v>
       </c>
       <c r="F108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6248,17 +6248,17 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6270,25 +6270,25 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-05</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CUST6325</t>
+          <t>CUST4746</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>54859092</v>
+        <v>52348448</v>
       </c>
       <c r="E109" t="n">
-        <v>13995408</v>
+        <v>17921941</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -6302,17 +6302,17 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-06</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CUST7342</t>
+          <t>CUST4499</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>47747167</v>
+        <v>41851075</v>
       </c>
       <c r="E110" t="n">
-        <v>13869617</v>
+        <v>13485809</v>
       </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -6378,29 +6378,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-10-25</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CUST7342</t>
+          <t>CUST2366</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>51981255</v>
+        <v>45408829</v>
       </c>
       <c r="E111" t="n">
-        <v>13727019</v>
+        <v>15527648</v>
       </c>
       <c r="F111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6410,12 +6410,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -6432,25 +6432,25 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-10-18</t>
+          <t>2026-10-21</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CUST9245</t>
+          <t>CUST4499</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>46372367</v>
+        <v>38327110</v>
       </c>
       <c r="E112" t="n">
-        <v>11768615</v>
+        <v>9856368</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -6464,17 +6464,17 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6486,29 +6486,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-10-04</t>
+          <t>2026-10-13</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CUST9629</t>
+          <t>CUST1005</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>46822694</v>
+        <v>54208515</v>
       </c>
       <c r="E113" t="n">
-        <v>14917641</v>
+        <v>17616693</v>
       </c>
       <c r="F113" t="n">
         <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6518,17 +6518,17 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-31</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CUST3376</t>
+          <t>CUST8165</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>45861072</v>
+        <v>49481806</v>
       </c>
       <c r="E114" t="n">
-        <v>13551686</v>
+        <v>12624826</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6572,17 +6572,17 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6594,25 +6594,25 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CUST8355</t>
+          <t>CUST1279</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>36115456</v>
+        <v>30021912</v>
       </c>
       <c r="E115" t="n">
-        <v>10102309</v>
+        <v>9107568</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -6626,17 +6626,17 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6648,25 +6648,25 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-10-09</t>
+          <t>2026-10-01</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST5491</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>45555228</v>
+        <v>32657354</v>
       </c>
       <c r="E116" t="n">
-        <v>13882106</v>
+        <v>8946928</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -6680,17 +6680,17 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -6702,29 +6702,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-18</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CUST7342</t>
+          <t>CUST3683</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>52908996</v>
+        <v>47804528</v>
       </c>
       <c r="E117" t="n">
-        <v>14247698</v>
+        <v>14582310</v>
       </c>
       <c r="F117" t="n">
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-10-29</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CUST3742</t>
+          <t>CUST7134</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>45234702</v>
+        <v>53592063</v>
       </c>
       <c r="E118" t="n">
-        <v>13430175</v>
+        <v>15650753</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6788,17 +6788,17 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -6810,25 +6810,25 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CUST9546</t>
+          <t>CUST7162</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>47886299</v>
+        <v>51740224</v>
       </c>
       <c r="E119" t="n">
-        <v>15943091</v>
+        <v>13548601</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -6842,17 +6842,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6864,25 +6864,25 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-10-16</t>
+          <t>2026-10-04</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CUST3989</t>
+          <t>CUST4499</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>42386906</v>
+        <v>47089356</v>
       </c>
       <c r="E120" t="n">
-        <v>10842684</v>
+        <v>13815447</v>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -6896,17 +6896,17 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -6918,25 +6918,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-10-27</t>
+          <t>2026-10-25</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CUST4441</t>
+          <t>CUST9957</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51641116</v>
+        <v>33524191</v>
       </c>
       <c r="E121" t="n">
-        <v>15275398</v>
+        <v>9897022</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -7017,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.2</v>
+        <v>92.5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>4031774</v>
+        <v>17244066</v>
       </c>
       <c r="E2" t="n">
-        <v>590442</v>
+        <v>3175063</v>
       </c>
     </row>
     <row r="3">
@@ -7036,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6993773</v>
+        <v>15785694</v>
       </c>
       <c r="E3" t="n">
-        <v>1943681</v>
+        <v>2216986</v>
       </c>
     </row>
     <row r="4">
@@ -7093,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.7</v>
+        <v>98.5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>11135652</v>
+        <v>5736897</v>
       </c>
       <c r="E6" t="n">
-        <v>3319305</v>
+        <v>1590886</v>
       </c>
     </row>
     <row r="7">
@@ -7112,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3800110</v>
+        <v>4842979</v>
       </c>
       <c r="E7" t="n">
-        <v>519181</v>
+        <v>1310863</v>
       </c>
     </row>
     <row r="8">
@@ -7131,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.5</v>
+        <v>95.7</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>22666567</v>
+        <v>4799471</v>
       </c>
       <c r="E8" t="n">
-        <v>2952460</v>
+        <v>677394</v>
       </c>
     </row>
     <row r="9">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>6976963</v>
+        <v>5335063</v>
       </c>
       <c r="E9" t="n">
-        <v>1962498</v>
+        <v>989500</v>
       </c>
     </row>
     <row r="10">
@@ -7169,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>23019981</v>
+        <v>18550430</v>
       </c>
       <c r="E10" t="n">
-        <v>4975617</v>
+        <v>1937347</v>
       </c>
     </row>
     <row r="11">
@@ -7188,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3007461</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7226,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>23760901</v>
+        <v>2709243</v>
       </c>
       <c r="E13" t="n">
-        <v>2701523</v>
+        <v>739356</v>
       </c>
     </row>
     <row r="14">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>4999137</v>
+        <v>7619961</v>
       </c>
       <c r="E14" t="n">
-        <v>1053215</v>
+        <v>923932</v>
       </c>
     </row>
     <row r="15">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>2997025</v>
+        <v>12294851</v>
       </c>
       <c r="E15" t="n">
-        <v>888377</v>
+        <v>2815201</v>
       </c>
     </row>
     <row r="16">
@@ -7283,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.09999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>6202829</v>
+        <v>7467236</v>
       </c>
       <c r="E16" t="n">
-        <v>884491</v>
+        <v>1290060</v>
       </c>
     </row>
     <row r="17">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>96.2</v>
+        <v>99.8</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>13680220</v>
+        <v>22259835</v>
       </c>
       <c r="E17" t="n">
-        <v>3574698</v>
+        <v>3604817</v>
       </c>
     </row>
     <row r="18">
@@ -7321,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>94.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>10829410</v>
+        <v>2616628</v>
       </c>
       <c r="E18" t="n">
-        <v>1546884</v>
+        <v>409725</v>
       </c>
     </row>
     <row r="19">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3585248</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1006690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7359,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.3</v>
+        <v>99.2</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>12493032</v>
+        <v>4110340</v>
       </c>
       <c r="E20" t="n">
-        <v>1389578</v>
+        <v>879129</v>
       </c>
     </row>
     <row r="21">
@@ -7378,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>8848059</v>
+        <v>4890961</v>
       </c>
       <c r="E21" t="n">
-        <v>1479547</v>
+        <v>1172992</v>
       </c>
     </row>
     <row r="22">
@@ -7397,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>8182866</v>
+        <v>16995026</v>
       </c>
       <c r="E22" t="n">
-        <v>1673563</v>
+        <v>4767982</v>
       </c>
     </row>
     <row r="23">
@@ -7416,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.5</v>
+        <v>91</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>12450264</v>
+        <v>11073033</v>
       </c>
       <c r="E23" t="n">
-        <v>3229304</v>
+        <v>3063768</v>
       </c>
     </row>
     <row r="24">
@@ -7435,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5987242</v>
+        <v>7107093</v>
       </c>
       <c r="E24" t="n">
-        <v>1079661</v>
+        <v>1440789</v>
       </c>
     </row>
     <row r="25">
@@ -7492,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>96.3</v>
+        <v>94.2</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>17017677</v>
+        <v>3936099</v>
       </c>
       <c r="E27" t="n">
-        <v>3753992</v>
+        <v>539624</v>
       </c>
     </row>
     <row r="28">
@@ -7511,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>17372868</v>
+        <v>8430845</v>
       </c>
       <c r="E28" t="n">
-        <v>2752969</v>
+        <v>1826289</v>
       </c>
     </row>
     <row r="29">
@@ -7530,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>10911939</v>
+        <v>21352582</v>
       </c>
       <c r="E29" t="n">
-        <v>1494672</v>
+        <v>5986020</v>
       </c>
     </row>
     <row r="30">
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>10950772</v>
+        <v>16971530</v>
       </c>
       <c r="E30" t="n">
-        <v>2952248</v>
+        <v>4251794</v>
       </c>
     </row>
     <row r="31">
@@ -7568,16 +7568,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>12928133</v>
+        <v>7657746</v>
       </c>
       <c r="E31" t="n">
-        <v>3552830</v>
+        <v>1561014</v>
       </c>
     </row>
     <row r="32">
